--- a/biology/Botanique/Pseudogynoxys/Pseudogynoxys.xlsx
+++ b/biology/Botanique/Pseudogynoxys/Pseudogynoxys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudogynoxys est un genre de plante à fleurs de la tribu des Senecioneae (les séneçons) et de la famille des Asteraceae, originaire d'Amérique  du Nord et du Sud[2],[3],[4],[5],[6],[7] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudogynoxys est un genre de plante à fleurs de la tribu des Senecioneae (les séneçons) et de la famille des Asteraceae, originaire d'Amérique  du Nord et du Sud .
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pseudogynoxys benthamii Cabrera - Paraguay, Argentine, Bolivie
 Pseudogynoxys bogotensis (Spreng. ) Cuatrec. - Colombie
-Pseudogynoxys chenopodioides (Kunth) Cabrera - de Tamaulipas au Nicaragua  [8]
+Pseudogynoxys chenopodioides (Kunth) Cabrera - de Tamaulipas au Nicaragua  
 Pseudogynoxys cordifolia (Cass. ) Cabrera - Pérou
 Pseudogynoxys cummingii (Benth. ) H. Rob. &amp; Cuatrec. - Mésoamérique
 Pseudogynoxys engleri (Hiéron. ) H. Rob. &amp; Cuatrec. - Pérou, Equateur
